--- a/Crawling/music/crawled_data/outlier_data/2022-05-09_2022-05-15/naver_datalab/outliers/Dynamite_방탄소년단.xlsx
+++ b/Crawling/music/crawled_data/outlier_data/2022-05-09_2022-05-15/naver_datalab/outliers/Dynamite_방탄소년단.xlsx
@@ -17,7 +17,7 @@
     <t>url</t>
   </si>
   <si>
-    <t>http://datalab.naver.com/keyword/trendResult.naver?hashKey=N_ee5e024f37e2c273fc22c26bfe105ed1</t>
+    <t>http://datalab.naver.com/keyword/trendResult.naver?hashKey=N_fad64f8f48473876b75d7ae1ebc0c78f</t>
   </si>
   <si>
     <t>주제</t>
@@ -35,7 +35,7 @@
     <t>기간</t>
   </si>
   <si>
-    <t>일간 : 2022-04-16 ~ 2022-05-16</t>
+    <t>일간 : 2022-04-18 ~ 2022-05-18</t>
   </si>
   <si>
     <t>성별</t>
@@ -56,169 +56,169 @@
     <t>Dynamite</t>
   </si>
   <si>
-    <t>2022-04-16</t>
+    <t>2022-04-18</t>
+  </si>
+  <si>
+    <t>82.82442</t>
+  </si>
+  <si>
+    <t>2022-04-19</t>
+  </si>
+  <si>
+    <t>75.19083</t>
+  </si>
+  <si>
+    <t>2022-04-20</t>
+  </si>
+  <si>
+    <t>2022-04-21</t>
+  </si>
+  <si>
+    <t>72.90076</t>
+  </si>
+  <si>
+    <t>2022-04-22</t>
+  </si>
+  <si>
+    <t>81.67938</t>
+  </si>
+  <si>
+    <t>2022-04-23</t>
+  </si>
+  <si>
+    <t>82.06106</t>
+  </si>
+  <si>
+    <t>2022-04-24</t>
+  </si>
+  <si>
+    <t>90.83969</t>
+  </si>
+  <si>
+    <t>2022-04-25</t>
+  </si>
+  <si>
+    <t>72.51908</t>
+  </si>
+  <si>
+    <t>2022-04-26</t>
+  </si>
+  <si>
+    <t>70.99236</t>
+  </si>
+  <si>
+    <t>2022-04-27</t>
+  </si>
+  <si>
+    <t>58.39694</t>
+  </si>
+  <si>
+    <t>2022-04-28</t>
+  </si>
+  <si>
+    <t>56.48854</t>
+  </si>
+  <si>
+    <t>2022-04-29</t>
+  </si>
+  <si>
+    <t>62.21374</t>
+  </si>
+  <si>
+    <t>2022-04-30</t>
+  </si>
+  <si>
+    <t>78.62595</t>
+  </si>
+  <si>
+    <t>2022-05-01</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>2022-05-02</t>
+  </si>
+  <si>
+    <t>62.59541</t>
+  </si>
+  <si>
+    <t>2022-05-03</t>
+  </si>
+  <si>
+    <t>72.1374</t>
+  </si>
+  <si>
+    <t>2022-05-04</t>
+  </si>
+  <si>
+    <t>71.37404</t>
+  </si>
+  <si>
+    <t>2022-05-05</t>
+  </si>
+  <si>
+    <t>74.80916</t>
+  </si>
+  <si>
+    <t>2022-05-06</t>
+  </si>
+  <si>
+    <t>73.28244</t>
+  </si>
+  <si>
+    <t>2022-05-07</t>
+  </si>
+  <si>
+    <t>2022-05-08</t>
+  </si>
+  <si>
+    <t>2022-05-09</t>
+  </si>
+  <si>
+    <t>2022-05-10</t>
+  </si>
+  <si>
+    <t>53.05343</t>
+  </si>
+  <si>
+    <t>2022-05-11</t>
+  </si>
+  <si>
+    <t>61.83206</t>
+  </si>
+  <si>
+    <t>2022-05-12</t>
+  </si>
+  <si>
+    <t>77.86259</t>
+  </si>
+  <si>
+    <t>2022-05-13</t>
+  </si>
+  <si>
+    <t>69.84732</t>
+  </si>
+  <si>
+    <t>2022-05-14</t>
+  </si>
+  <si>
+    <t>2022-05-15</t>
+  </si>
+  <si>
+    <t>2022-05-16</t>
   </si>
   <si>
     <t>75.57251</t>
   </si>
   <si>
-    <t>2022-04-17</t>
-  </si>
-  <si>
-    <t>80.53435</t>
-  </si>
-  <si>
-    <t>2022-04-18</t>
-  </si>
-  <si>
-    <t>82.82442</t>
-  </si>
-  <si>
-    <t>2022-04-19</t>
-  </si>
-  <si>
-    <t>75.19083</t>
-  </si>
-  <si>
-    <t>2022-04-20</t>
-  </si>
-  <si>
-    <t>2022-04-21</t>
-  </si>
-  <si>
-    <t>72.90076</t>
-  </si>
-  <si>
-    <t>2022-04-22</t>
-  </si>
-  <si>
-    <t>81.67938</t>
-  </si>
-  <si>
-    <t>2022-04-23</t>
-  </si>
-  <si>
-    <t>82.06106</t>
-  </si>
-  <si>
-    <t>2022-04-24</t>
-  </si>
-  <si>
-    <t>90.83969</t>
-  </si>
-  <si>
-    <t>2022-04-25</t>
-  </si>
-  <si>
-    <t>72.51908</t>
-  </si>
-  <si>
-    <t>2022-04-26</t>
-  </si>
-  <si>
-    <t>70.99236</t>
-  </si>
-  <si>
-    <t>2022-04-27</t>
-  </si>
-  <si>
-    <t>58.39694</t>
-  </si>
-  <si>
-    <t>2022-04-28</t>
-  </si>
-  <si>
-    <t>56.48854</t>
-  </si>
-  <si>
-    <t>2022-04-29</t>
-  </si>
-  <si>
-    <t>62.21374</t>
-  </si>
-  <si>
-    <t>2022-04-30</t>
-  </si>
-  <si>
-    <t>78.62595</t>
-  </si>
-  <si>
-    <t>2022-05-01</t>
-  </si>
-  <si>
-    <t>100.0</t>
-  </si>
-  <si>
-    <t>2022-05-02</t>
-  </si>
-  <si>
-    <t>62.59541</t>
-  </si>
-  <si>
-    <t>2022-05-03</t>
-  </si>
-  <si>
-    <t>72.1374</t>
-  </si>
-  <si>
-    <t>2022-05-04</t>
-  </si>
-  <si>
-    <t>71.37404</t>
-  </si>
-  <si>
-    <t>2022-05-05</t>
-  </si>
-  <si>
-    <t>74.80916</t>
-  </si>
-  <si>
-    <t>2022-05-06</t>
-  </si>
-  <si>
-    <t>73.28244</t>
-  </si>
-  <si>
-    <t>2022-05-07</t>
-  </si>
-  <si>
-    <t>2022-05-08</t>
-  </si>
-  <si>
-    <t>2022-05-09</t>
-  </si>
-  <si>
-    <t>2022-05-10</t>
-  </si>
-  <si>
-    <t>53.05343</t>
-  </si>
-  <si>
-    <t>2022-05-11</t>
-  </si>
-  <si>
-    <t>61.83206</t>
-  </si>
-  <si>
-    <t>2022-05-12</t>
-  </si>
-  <si>
-    <t>77.86259</t>
-  </si>
-  <si>
-    <t>2022-05-13</t>
-  </si>
-  <si>
-    <t>69.84732</t>
-  </si>
-  <si>
-    <t>2022-05-14</t>
-  </si>
-  <si>
-    <t>2022-05-15</t>
-  </si>
-  <si>
-    <t>2022-05-16</t>
+    <t>2022-05-17</t>
+  </si>
+  <si>
+    <t>2022-05-18</t>
+  </si>
+  <si>
+    <t>81.2977</t>
   </si>
 </sst>
 </file>
@@ -346,23 +346,23 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -482,20 +482,20 @@
         <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
         <v>42</v>
@@ -503,18 +503,18 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" t="s">
         <v>57</v>
-      </c>
-      <c r="B31" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="32">
@@ -538,39 +538,39 @@
         <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" t="s">
         <v>68</v>
-      </c>
-      <c r="B38" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
